--- a/data/trans_bre/P1412-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.0496905992298618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1201800052155241</v>
+        <v>0.120180005215524</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.4106156412586506</v>
@@ -627,7 +627,7 @@
         <v>-0.08863621065057278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1992329901496401</v>
+        <v>0.1992329901496398</v>
       </c>
     </row>
     <row r="5">
@@ -638,18 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5649743489450126</v>
+        <v>-0.612226906693238</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8075632249476183</v>
+        <v>-0.8323326246630167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5927133885831236</v>
-      </c>
-      <c r="F5" s="6" t="inlineStr"/>
-      <c r="G5" s="6" t="inlineStr"/>
+        <v>-0.5258689704423477</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7584924602315715</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6266742471461231</v>
+        <v>-0.5659387191290763</v>
       </c>
     </row>
     <row r="6">
@@ -660,18 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.11548436929645</v>
+        <v>1.140520826307965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8343885880956167</v>
+        <v>0.7434347552883068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7139115202774701</v>
-      </c>
-      <c r="F6" s="6" t="inlineStr"/>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>0.7535221077389493</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>6.276947800483235</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.442147622433291</v>
+      </c>
       <c r="H6" s="6" t="n">
-        <v>2.438537246425986</v>
+        <v>3.121160861036826</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +700,7 @@
         <v>-0.6372573187856074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.2266377992961394</v>
+        <v>-0.2266377992961392</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3367080746196708</v>
@@ -701,7 +709,7 @@
         <v>-0.6517351462401296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3716636030734864</v>
+        <v>-0.3716636030734862</v>
       </c>
     </row>
     <row r="8">
@@ -712,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.368059454914283</v>
+        <v>-1.304222129750627</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.414682927040475</v>
+        <v>-1.424483687665691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7697020461762987</v>
+        <v>-0.7532778424631473</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8465787706983429</v>
+        <v>-0.857074647906125</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9253365289256431</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8507462787895413</v>
+        <v>-0.8153467336706441</v>
       </c>
     </row>
     <row r="9">
@@ -738,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4038126432856207</v>
+        <v>0.4449806853789702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07123349324930611</v>
+        <v>0.02232469074730418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2247638238972649</v>
+        <v>0.2375262364994183</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8070826089800557</v>
+        <v>1.147792794163159</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5516264234994069</v>
+        <v>0.3631925873389206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.047584306594532</v>
+        <v>1.034540809116934</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +782,7 @@
         <v>-0.4378392987286453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.7990101434822726</v>
+        <v>-0.7990101434822723</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>1.014254139599249</v>
@@ -783,7 +791,7 @@
         <v>-0.420708508844113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.6662191462781433</v>
+        <v>-0.6662191462781432</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +802,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2774732788572877</v>
+        <v>-0.2550354772191983</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.489294128805701</v>
+        <v>-1.543171236207893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.072668726370416</v>
+        <v>-1.91534992328555</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4516898275222075</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-0.9090833400495959</v>
-      </c>
+        <v>-0.4062042552445263</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.9291688043472403</v>
+        <v>-0.9432065372195396</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +826,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.639948681214526</v>
+        <v>1.569056339927129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5070703809265048</v>
+        <v>0.4817277920155331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.06454186775399968</v>
+        <v>-0.04987432500808355</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>8.26907689197663</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>1.482333575045067</v>
-      </c>
+        <v>9.136831507957732</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.140728101103987</v>
+        <v>0.01713927034889989</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +860,7 @@
         <v>0.2381475017223566</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.5191245026168362</v>
+        <v>-0.5191245026168363</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2536741903829171</v>
@@ -865,7 +869,7 @@
         <v>0.4995726370248364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4103879358335274</v>
+        <v>-0.4103879358335276</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7983240939357678</v>
+        <v>-0.7872125943851479</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.415884722775652</v>
+        <v>-0.4005018513228932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.301020167108469</v>
+        <v>-1.226654321739375</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8668444369383375</v>
+        <v>-0.8795003876199066</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6341663258340923</v>
+        <v>-0.6571501890675081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7139013371751809</v>
+        <v>-0.7064150083583558</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3911110684024603</v>
+        <v>0.4440131598310299</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.01332423206892</v>
+        <v>0.885206190478945</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2038507262932415</v>
+        <v>0.1716718504418259</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.778375319273106</v>
+        <v>3.208700007235875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.261876705342631</v>
+        <v>4.462810016167735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3463678128166883</v>
+        <v>0.2672670432378704</v>
       </c>
     </row>
     <row r="16">
@@ -958,22 +962,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.356919786393723</v>
+        <v>-0.3787558286878761</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5985047621162787</v>
+        <v>-0.6495764488322336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.72771543821339</v>
+        <v>-0.7602733274298666</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4305494477214354</v>
+        <v>-0.4583820301839956</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6390514527319607</v>
+        <v>-0.6666885994090532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6413935977594726</v>
+        <v>-0.6027763648804536</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +988,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4306279041000217</v>
+        <v>0.4403039440375304</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1778915113654507</v>
+        <v>0.1679158851305826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.02462819732105157</v>
+        <v>-0.0450411527892384</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.061640264197676</v>
+        <v>0.9857227945931539</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3771729096635495</v>
+        <v>0.3097932623061579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.01898119258041164</v>
+        <v>0.001692721558090599</v>
       </c>
     </row>
     <row r="19">
